--- a/tests/artifact/data/Mobile-CreateCustomer.data.xlsx
+++ b/tests/artifact/data/Mobile-CreateCustomer.data.xlsx
@@ -2391,7 +2391,7 @@
   <dimension ref="A1:C214"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="125" topLeftCell="A194" workbookViewId="0">
-      <selection activeCell="B212" sqref="B212"/>
+      <selection activeCell="A148" sqref="$A148:$XFD148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7" defaultRowHeight="16" outlineLevelCol="2"/>

--- a/tests/artifact/data/Mobile-CreateCustomer.data.xlsx
+++ b/tests/artifact/data/Mobile-CreateCustomer.data.xlsx
@@ -2390,8 +2390,8 @@
   <sheetPr/>
   <dimension ref="A1:C214"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="125" topLeftCell="A194" workbookViewId="0">
-      <selection activeCell="A148" sqref="$A148:$XFD148"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="125" topLeftCell="B136" workbookViewId="0">
+      <selection activeCell="B148" sqref="B148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7" defaultRowHeight="16" outlineLevelCol="2"/>
